--- a/biology/Médecine/Syndrome_oculo-urétro-synovial/Syndrome_oculo-urétro-synovial.xlsx
+++ b/biology/Médecine/Syndrome_oculo-urétro-synovial/Syndrome_oculo-urétro-synovial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_oculo-ur%C3%A9tro-synovial</t>
+          <t>Syndrome_oculo-urétro-synovial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome oculo-urétro-synovial est la forme la plus complète de l'arthrite réactionnelle. C'est une maladie systémique qui accompagne parfois la spondylarthrite ankylosante. Elle se caractérise par l'apparition simultanée de :
 fièvre ;
@@ -489,7 +501,7 @@
 conjonctivite (yeux rouges, avec démangeaisons).
 Elle fait partie des spondyloarthrites séronégatives (le malade ne présente pas d'anticorps spécifiques permettant de déceler la maladie). Elle est due à une atteinte inflammatoire de l'œil, des organes génito-urinaires, des articulations ou des intestins en réaction a une infection bactérienne.
 C'est une des causes les plus fréquentes d'arthrite chez les jeunes.
-Cette maladie était appelée syndrome de Fiessinger-Leroy-Reiter ou maladie de Reiter, mais a été débaptisée en raison de l'activité nazie de Hans Reiter[1].
+Cette maladie était appelée syndrome de Fiessinger-Leroy-Reiter ou maladie de Reiter, mais a été débaptisée en raison de l'activité nazie de Hans Reiter.
 </t>
         </is>
       </c>
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_oculo-ur%C3%A9tro-synovial</t>
+          <t>Syndrome_oculo-urétro-synovial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette maladie fut décrite pour la première fois en 1916, et de manière indépendante, par un médecin, Hans Reiter d'une part, et par Noël Fiessinger et Leroy, d'autre part.
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_oculo-ur%C3%A9tro-synovial</t>
+          <t>Syndrome_oculo-urétro-synovial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est plus répandue chez l'homme et touche moins souvent les femmes, les personnes âgées et les enfants.
 Il semble exister une prédisposition génétique.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_oculo-ur%C3%A9tro-synovial</t>
+          <t>Syndrome_oculo-urétro-synovial</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La cause la plus fréquente chez les hommes de 20 à 40 ans est Chlamydia trachomatis, ayant pour origine une infection génitale.
 D'autres bactéries peuvent être en cause parmi lesquelles figurent les mycoplasmes, les rickettsies (Rickettsia psittaci (désuet), Rickettsia trachomatis), les genres Myagawanella et Bedsonia, les néorickettsie et peut-être les borrélies.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_oculo-ur%C3%A9tro-synovial</t>
+          <t>Syndrome_oculo-urétro-synovial</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,8 +635,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Symptômes
-Les symptômes principaux sont l’arthrite, l’urétrite ou cervicite et la conjonctivite.
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les symptômes principaux sont l’arthrite, l’urétrite ou cervicite et la conjonctivite.
 Chez la femme, les chlamydiae provoque une cervicite et parfois une salpingite.
 Chez l'homme, l'infection se traduit par une urétrite associée à un écoulement et qui se complique quelquefois d'une épididymite.
 Conjonctivite
@@ -634,15 +657,7 @@
 Fièvre
 Apparition progressive d'une amyotrophie (une fonte musculaire qui immobilise d'abord les grosses articulations comme les genoux)
 Monoarthrite chez quelques malades : le genou, une cheville ou un pied
-Plus rarement, on constate une atteinte du cœur et des vaisseaux se caractérisant par une inflammation de l'aorte (aortite) s'accompagnant quelquefois d'une insuffisance aortique.
-Examens complémentaires
-Echographie articulaire = Permet le diagnostic positif d'arthrite en cas de doute clinique. Retrouve un épanchement de liquide synovial associé à une hyper-vascularisation à l'échographie doppler de la membrane synoviale, témoin de l'activité inflammatoire.
-Radiographies standards du bassin : Peuvent montrer une inflammation de l'articulation entre le sacrum et l'aile iliaque en cas d'atteinte chronique, sont souvent d'un apport diagnostic faible en aigu mais permette l'exclusion d'un diagnostic complémentaire parfois associé, celui de la spondylarthrite ankylosante.
-Ponction du liquide synovial : Indispensable au diagnostic, le liquide synovial est, dans l'arthrite réactionnelle, inflammatoire mais stérile, par opposition à l'arthrite septique dans le liquide synovial, c'est-à-dire, qu'on ne retrouve pas de bactéries vivantes, ni à l'examen directe ni en culture.
-Biopsie synoviale : Certaines études ont cependant mis en évidence de l'ADN ou de l'ARN bactérien dans la membrane synoviale voire dans le sang de certains patients[2].
-Recherche par PCR (polymerase chain reaction) sur premier jet urinaire d'infection à chlamydia trachomatis afin de traiter une éventuelle infection sexuellement transmissible qui peut être passée inaperçue par ailleurs.
-Recherche de l'HLA-B27 permet parfois de conclure en cas de difficulté diagnostique et d'orienter le patient quant au risque de chronicité potentielle[3].
-Sérologies bactériennes : permettent parfois le diagnostic si un des germes responsables d'arthrite réactionnelle est retrouvé, (Yersinia spp, Salmonella spp, Campylobacter spp, Shigella spp, Chlamydia trachomatis, chlamydia pneumoniae, etc.) mais ne posent pas toujours l'indication à un traitement spécifique, l'infection étant souvent déjà spontanément guérie au moment de la poussée rhumatismale[4].</t>
+Plus rarement, on constate une atteinte du cœur et des vaisseaux se caractérisant par une inflammation de l'aorte (aortite) s'accompagnant quelquefois d'une insuffisance aortique.</t>
         </is>
       </c>
     </row>
@@ -652,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syndrome_oculo-ur%C3%A9tro-synovial</t>
+          <t>Syndrome_oculo-urétro-synovial</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,10 +682,54 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Examens complémentaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Echographie articulaire = Permet le diagnostic positif d'arthrite en cas de doute clinique. Retrouve un épanchement de liquide synovial associé à une hyper-vascularisation à l'échographie doppler de la membrane synoviale, témoin de l'activité inflammatoire.
+Radiographies standards du bassin : Peuvent montrer une inflammation de l'articulation entre le sacrum et l'aile iliaque en cas d'atteinte chronique, sont souvent d'un apport diagnostic faible en aigu mais permette l'exclusion d'un diagnostic complémentaire parfois associé, celui de la spondylarthrite ankylosante.
+Ponction du liquide synovial : Indispensable au diagnostic, le liquide synovial est, dans l'arthrite réactionnelle, inflammatoire mais stérile, par opposition à l'arthrite septique dans le liquide synovial, c'est-à-dire, qu'on ne retrouve pas de bactéries vivantes, ni à l'examen directe ni en culture.
+Biopsie synoviale : Certaines études ont cependant mis en évidence de l'ADN ou de l'ARN bactérien dans la membrane synoviale voire dans le sang de certains patients.
+Recherche par PCR (polymerase chain reaction) sur premier jet urinaire d'infection à chlamydia trachomatis afin de traiter une éventuelle infection sexuellement transmissible qui peut être passée inaperçue par ailleurs.
+Recherche de l'HLA-B27 permet parfois de conclure en cas de difficulté diagnostique et d'orienter le patient quant au risque de chronicité potentielle.
+Sérologies bactériennes : permettent parfois le diagnostic si un des germes responsables d'arthrite réactionnelle est retrouvé, (Yersinia spp, Salmonella spp, Campylobacter spp, Shigella spp, Chlamydia trachomatis, chlamydia pneumoniae, etc.) mais ne posent pas toujours l'indication à un traitement spécifique, l'infection étant souvent déjà spontanément guérie au moment de la poussée rhumatismale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_oculo-urétro-synovial</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_oculo-ur%C3%A9tro-synovial</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes "involuent" (régressent) en 4 à 5 mois, mais environ la moitié des patients présente des rechutes, transitoires ou prolongées, à type d'arthrite ou d'autres symptômes pendant plusieurs années.
 On a également remarqué des déformations associées à une ankylose des articulations qui traduit une inflammation de l'articulation située entre le sacrum et les os iliaques (articulation sacro-iliaque dans le bassin) ou quelquefois une atteinte de la colonne vertébrale. Ces symptômes se rencontrent essentiellement au cours du syndrome oculo-urétro-synovial chronique ou récidivant.
@@ -678,31 +737,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Syndrome_oculo-ur%C3%A9tro-synovial</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_oculo-urétro-synovial</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_oculo-ur%C3%A9tro-synovial</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe une polémique quant à l'utilisation des antibiotiques de façon prolongée.
 Les anti-inflammatoires et des antalgiques permettent de soulager les symptômes.
